--- a/DATA_goal/Junction_Flooding_446.xlsx
+++ b/DATA_goal/Junction_Flooding_446.xlsx
@@ -759,103 +759,103 @@
         <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H4" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T4" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_446.xlsx
+++ b/DATA_goal/Junction_Flooding_446.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.71527777778</v>
+        <v>45127.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.72222222222</v>
+        <v>45127.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.47</v>
+        <v>1.868</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.802</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.29</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.37</v>
+        <v>4.347</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.06</v>
+        <v>2.223</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>1.356</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.64</v>
+        <v>10.693</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.327</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.758</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.37</v>
+        <v>1.569</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.35</v>
+        <v>1.696</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.509</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.47</v>
+        <v>2.024</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.27</v>
+        <v>1.735</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.342</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.595</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>15.679</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.52</v>
+        <v>4.658</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.27</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.74</v>
+        <v>2.724</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.243</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.823</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.26</v>
+        <v>5.035</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>1.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>1.328</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>1.574</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6</v>
+        <v>1.358</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.62</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.47</v>
+        <v>10.615</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.521</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.72916666666</v>
+        <v>45127.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.95</v>
+        <v>13.402</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.63</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.209</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.57</v>
+        <v>29.415</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.15</v>
+        <v>23.367</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.96</v>
+        <v>10.457</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.68</v>
+        <v>36.895</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.89</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.47</v>
+        <v>7.067</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.82</v>
+        <v>11.699</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.95</v>
+        <v>12.428</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.378</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.67</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.03</v>
+        <v>14.816</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.59</v>
+        <v>9.083</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.979</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.724</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.53</v>
+        <v>152.872</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.66</v>
+        <v>29.272</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.63</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.43</v>
+        <v>19.415</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6</v>
+        <v>10.213</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.799</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.78</v>
+        <v>18.306</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.62</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.03</v>
+        <v>7.708</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.59</v>
+        <v>9.074</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.98</v>
+        <v>12.093</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.39</v>
+        <v>33.338</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.48</v>
+        <v>5.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.72</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.73611111111</v>
+        <v>45127.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.96</v>
+        <v>11.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.64</v>
+        <v>8.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.67</v>
+        <v>26.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.28</v>
+        <v>20.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.28</v>
+        <v>36.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.95</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.49</v>
+        <v>6.37</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.71</v>
+        <v>9.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.84</v>
+        <v>10.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.97</v>
+        <v>11.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.08</v>
+        <v>13.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.6</v>
+        <v>8.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.37</v>
+        <v>135.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.81</v>
+        <v>26.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.64</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.52</v>
+        <v>17.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.65</v>
+        <v>9.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.1</v>
+        <v>17.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.62</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.91</v>
+        <v>6.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.62</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.95</v>
+        <v>10.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.03</v>
+        <v>33.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.77</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_446.xlsx
+++ b/DATA_goal/Junction_Flooding_446.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45127.50694444445</v>
+        <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.835</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.791</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.698</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.243</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.166</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.958</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.033</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.735</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.533</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.739</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.655</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.282</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.096</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.025</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.298</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.758</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.812</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.713</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.837</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.288</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.641999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.303</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.679</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.311</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.418</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45127.51388888889</v>
+        <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.868</v>
+        <v>0.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.802</v>
+        <v>0.261</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.174</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.347</v>
+        <v>0.365</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.223</v>
+        <v>0.064</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.356</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.693</v>
+        <v>0.637</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.327</v>
+        <v>0.218</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.229</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.758</v>
+        <v>0.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.569</v>
+        <v>0.374</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.696</v>
+        <v>0.347</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.509</v>
+        <v>0.286</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.504</v>
+        <v>0.248</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.024</v>
+        <v>0.471</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.735</v>
+        <v>0.272</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.342</v>
+        <v>0.238</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.595</v>
+        <v>0.202</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.679</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.658</v>
+        <v>0.525</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.388</v>
+        <v>0.271</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.724</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.243</v>
+        <v>0.248</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.823</v>
+        <v>0.124</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.035</v>
+        <v>0.265</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.226</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.328</v>
+        <v>1.002</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.574</v>
+        <v>0.213</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.358</v>
+        <v>0.605</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0.621</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.615</v>
+        <v>0.472</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.521</v>
+        <v>0.264</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.744</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45127.52083333334</v>
+        <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.402</v>
+        <v>0.953</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.629</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.209</v>
+        <v>0.172</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.415</v>
+        <v>1.572</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.367</v>
+        <v>1.152</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.457</v>
+        <v>0.955</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.895</v>
+        <v>1.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.288</v>
+        <v>0.893</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.067</v>
+        <v>0.465</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.36</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.699</v>
+        <v>0.824</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.428</v>
+        <v>0.95</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.378</v>
+        <v>0.321</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.527</v>
+        <v>0.669</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.816</v>
+        <v>1.029</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.083</v>
+        <v>0.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.979</v>
+        <v>0.205</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.724</v>
+        <v>0.174</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.872</v>
+        <v>4.534</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.272</v>
+        <v>1.659</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.415</v>
+        <v>1.426</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.213</v>
+        <v>0.602</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.799</v>
+        <v>0.137</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.306</v>
+        <v>0.781</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.583</v>
+        <v>0.621</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.708</v>
+        <v>1.028</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.074</v>
+        <v>0.592</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.093</v>
+        <v>0.982</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.453</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.338</v>
+        <v>1.395</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.35</v>
+        <v>0.48</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.148</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45127.52777777778</v>
+        <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.96</v>
+        <v>0.955</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.73</v>
+        <v>0.635</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>36.86</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>14.54</v>
-      </c>
       <c r="J5" s="4" t="n">
-        <v>6.37</v>
+        <v>0.494</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.32</v>
+        <v>0.709</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.46</v>
+        <v>0.835</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.12</v>
+        <v>0.97</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.02</v>
+        <v>0.297</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.4</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.3</v>
+        <v>1.079</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.07</v>
+        <v>0.599</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4.368</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>2.026</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>135.74</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>17.52</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>33.68</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>10.85</v>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_446.xlsx
+++ b/DATA_goal/Junction_Flooding_446.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.71527777778</v>
+        <v>45127.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.72222222222</v>
+        <v>45127.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.468</v>
+        <v>1.868</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.261</v>
+        <v>0.802</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.174</v>
+        <v>1.29</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.365</v>
+        <v>4.347</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.064</v>
+        <v>2.223</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>1.356</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.637</v>
+        <v>10.693</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.218</v>
+        <v>2.327</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.229</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.264</v>
+        <v>0.758</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.374</v>
+        <v>1.569</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.347</v>
+        <v>1.696</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.286</v>
+        <v>0.509</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.248</v>
+        <v>1.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.471</v>
+        <v>2.024</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.272</v>
+        <v>1.735</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.238</v>
+        <v>1.342</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.202</v>
+        <v>0.595</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>15.679</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.525</v>
+        <v>4.658</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.271</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.74</v>
+        <v>2.724</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.248</v>
+        <v>1.243</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.124</v>
+        <v>0.823</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.265</v>
+        <v>5.035</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>1.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.002</v>
+        <v>1.328</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.213</v>
+        <v>1.574</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.605</v>
+        <v>1.358</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.621</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.472</v>
+        <v>10.615</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.264</v>
+        <v>0.521</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.72916666666</v>
+        <v>45127.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.953</v>
+        <v>13.402</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.629</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.172</v>
+        <v>1.209</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.572</v>
+        <v>29.415</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.152</v>
+        <v>23.367</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.955</v>
+        <v>10.457</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.68</v>
+        <v>36.895</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.893</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.465</v>
+        <v>7.067</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.6879999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.824</v>
+        <v>11.699</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.95</v>
+        <v>12.428</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.321</v>
+        <v>3.378</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.669</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.029</v>
+        <v>14.816</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.59</v>
+        <v>9.083</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.205</v>
+        <v>0.979</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.174</v>
+        <v>0.724</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.534</v>
+        <v>152.872</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.659</v>
+        <v>29.272</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.63</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.426</v>
+        <v>19.415</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.602</v>
+        <v>10.213</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.137</v>
+        <v>1.799</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.781</v>
+        <v>18.306</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.621</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.028</v>
+        <v>7.708</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.592</v>
+        <v>9.074</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.982</v>
+        <v>12.093</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.453</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.395</v>
+        <v>33.338</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.48</v>
+        <v>5.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.721</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.73611111111</v>
+        <v>45127.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.955</v>
+        <v>11.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.635</v>
+        <v>8.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.151</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.668</v>
+        <v>26.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.28</v>
+        <v>20.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.969</v>
+        <v>9.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.277</v>
+        <v>36.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.95</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.494</v>
+        <v>6.37</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.709</v>
+        <v>9.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.835</v>
+        <v>10.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.97</v>
+        <v>11.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.297</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.6879999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.079</v>
+        <v>13.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.599</v>
+        <v>8.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.178</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.148</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.368</v>
+        <v>135.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.81</v>
+        <v>26.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.637</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.516</v>
+        <v>17.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.646</v>
+        <v>9.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.122</v>
+        <v>1.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.102</v>
+        <v>17.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.618</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.914</v>
+        <v>6.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.619</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.951</v>
+        <v>10.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.361</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.026</v>
+        <v>33.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.478</v>
+        <v>4.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.77</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>
